--- a/biology/Médecine/Hôpital_Gaiļezers/Hôpital_Gaiļezers.xlsx
+++ b/biology/Médecine/Hôpital_Gaiļezers/Hôpital_Gaiļezers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Gai%C4%BCezers</t>
+          <t>Hôpital_Gaiļezers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital Gaiļezers (en letton : Gaiļezera slimnīca) est un hôpital situé dans le voisinage Mežciems de Riga en Lettonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital Gaiļezers (en letton : Gaiļezera slimnīca) est un hôpital situé dans le voisinage Mežciems de Riga en Lettonie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Gai%C4%BCezers</t>
+          <t>Hôpital_Gaiļezers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Gaiļezer est situé au 2, rue Hipoprāta, à Riga. Il fait partie de l'hôpital universitaire de l'Est de Riga.
-L'hôpital Gaiļezer est la plus grande institution médicale polyvalente de Lettonie, qui fournit un diagnostic et un traitement complets aux patients, mène des travaux de recherche scientifique et développe des innovations, assure la formation de jeunes spécialistes et met en œuvre des mesures d'éducation et de promtion de la santé publique[1]. 
-L'hôpital couvre des spécialités indisponibles dans d'autres établissements médicaux hospitaliers en Lettonie, tels que la microchirurgie, la chirurgie plastique et reconstructive, le traitement des escarres, la toxicologie et la septicémie, le profil polytraumatisé, le traitement des brûlures et des engelures, la surdologie pédiatrique, transplantation de cellules souches, traitement de la tuberculose, traitement du VIH/SIDA et radiothérapie stéréotaxique chez les patients oncologiques[1].
+L'hôpital Gaiļezer est la plus grande institution médicale polyvalente de Lettonie, qui fournit un diagnostic et un traitement complets aux patients, mène des travaux de recherche scientifique et développe des innovations, assure la formation de jeunes spécialistes et met en œuvre des mesures d'éducation et de promtion de la santé publique. 
+L'hôpital couvre des spécialités indisponibles dans d'autres établissements médicaux hospitaliers en Lettonie, tels que la microchirurgie, la chirurgie plastique et reconstructive, le traitement des escarres, la toxicologie et la septicémie, le profil polytraumatisé, le traitement des brûlures et des engelures, la surdologie pédiatrique, transplantation de cellules souches, traitement de la tuberculose, traitement du VIH/SIDA et radiothérapie stéréotaxique chez les patients oncologiques.
 Au cours de l'année 2023, l'hôpital a fourni des services de santé à 55 000 patients hospitalisés et 840 000  patients ambulatoires. Au total, l'hôpital dans son ensemble compte plus de 2 000 lits. Au cours de l'année, plus de 72 000 types d'opérations différents sont réalisés.
-L'hôpital a près de 5 000 employés[1].
-À l'hôpital, l'enseignement est realisé en coopération avec l'Université de Lettonie et l'Université Stradiņš[2].
+L'hôpital a près de 5 000 employés.
+À l'hôpital, l'enseignement est realisé en coopération avec l'Université de Lettonie et l'Université Stradiņš.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Gai%C4%BCezers</t>
+          <t>Hôpital_Gaiļezers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clinique de médecine d'urgence (NMPUK)
